--- a/research/1yr/stock-returns-1yr-2012-01-07.xlsx
+++ b/research/1yr/stock-returns-1yr-2012-01-07.xlsx
@@ -1020,7 +1020,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1049,6 +1049,11 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1122,24 +1127,2103 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$21:$K$322</c:f>
+              <c:strCache>
+                <c:ptCount val="302"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$21:$L$322</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="302"/>
+                <c:pt idx="0">
+                  <c:v>69.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51.005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.39</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.605</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.535</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.665</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.635</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.235</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.69</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37.915</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38.55</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.345</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.54</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.105</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.735</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>28.54</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.165</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22.775</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.56</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>28.19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>30.43</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30.445</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27.23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>28.775</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.785</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.64</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.345</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.225</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.095</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.775</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.975</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37.67</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42.78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.325</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>43.33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42.315</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.87</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42.02</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.155</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41.43</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.24</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48.04</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.405</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>60.415</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>60.97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>66.07</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>69.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>68.98</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65.41</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64.145</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>61.935</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>63.065</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>65.03</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>65.37</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>64.175</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>67.35</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>59.31</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64.04</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>62.28</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>64.015</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>63.315</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>62.025</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58.02</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49.635</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>48.735</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45.965</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49.955</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>51.995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>48.91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>48.48</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>47.605</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>49.19</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>47.99</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52.565</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>51.84</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>56.32</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>52.075</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>59.37</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>54.42</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>52.985</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>73.945</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>73.29</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>72.16</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>65.47</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>62.385</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>59.605</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>62.575</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>59.73</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58.325</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>54.52</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>52.805</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>50.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>49.725</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>50.425</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>47.34</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>41.995</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>41.455</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>41.055</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>43.295</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21.255</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19.43</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>21.085</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>25.375</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>25.425</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>26.955</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>31.355</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34.08</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34.185</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>37.085</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>36.74</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>39.075</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35.16</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>37.775</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>41.305</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42.785</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>43.14</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>34.895</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>34.515</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>34.025</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>30.35</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>30.345</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>29.69</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>24.29</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>24.065</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>26.295</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>31.08</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>30.045</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26.61</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>24.095</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>23.34</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>26.295</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>38.88</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42.705</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>41.78</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>53.26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>53.18</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>54.545</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54.71</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>52.03</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>56.73</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>55.115</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>53.84</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>50.72</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>51.095</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>52.76</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>52.89</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>50.495</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>48.34</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45.83</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>34.39</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>33.92</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>37.43</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>27.06</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>26.715</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>27.26</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>33.09</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>33.645</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>34.71</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>36.135</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>35.91</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>35.805</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>36.465</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>43.71</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>46.62</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>46.925</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>47.49</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>49.225</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>46.57</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>45.04</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>43.865</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>43.755</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>45.43</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>47.955</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>46.785</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>40.24</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>43.4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>41.87</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>39.285</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>39.96</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>38.745</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>34.73</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>23.475</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>23.045</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>22.295</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>21.475</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>19.485</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>28.8</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>29.76</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>29.78</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>30.38</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>32.935</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>33.995</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>36.115</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>32.54</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>34.03</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>31.365</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>40.585</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>40.805</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>39.335</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>39.47</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42.06</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>43.16</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>47.665</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>49.38</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>45.76</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>48.035</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>46.87</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>47.21</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>47.445</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>47.24</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>48.26</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>49.465</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>50.07</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>50.04</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>38.96</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>40.76</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42.215</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>44.06</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>42.83</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>48.675</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>44.185</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>41.76</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>42.945</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>43.605</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>43.085</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>42.805</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>40.085</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>35.895</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>35.875</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>34.055</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>36.06</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>39.24</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>38.77</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>36.2</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>41.855</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>40.855</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>43.67</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>44.75</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>46.345</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>43.43</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>43.475</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>45.765</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>55.775</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>55.855</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>51.565</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>50.16</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>55.165</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>54.67</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>54.665</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>57.425</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>53.675</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>49.195</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>52.17</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>53.635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="16888981"/>
+        <c:axId val="55654481"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="16888981"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55654481"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55654481"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16888981"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10348920" y="84600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,23 +3231,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J322"/>
+  <dimension ref="A1:L322"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.66"/>
   </cols>
   <sheetData>
@@ -1835,6 +3919,13 @@
       <c r="J21" s="0" t="n">
         <v>51.5</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">AVERAGE(J2:J21)</f>
+        <v>69.875</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -1867,6 +3958,13 @@
       <c r="J22" s="0" t="n">
         <v>36.3</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">AVERAGE(J3:J22)</f>
+        <v>66.72</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -1899,6 +3997,13 @@
       <c r="J23" s="0" t="n">
         <v>31.2</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">AVERAGE(J4:J23)</f>
+        <v>66.08</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -1931,6 +4036,13 @@
       <c r="J24" s="0" t="n">
         <v>2.5</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">AVERAGE(J5:J24)</f>
+        <v>64.13</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -1963,6 +4075,13 @@
       <c r="J25" s="0" t="n">
         <v>65.7</v>
       </c>
+      <c r="K25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">AVERAGE(J6:J25)</f>
+        <v>66.41</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -1995,6 +4114,13 @@
       <c r="J26" s="0" t="n">
         <v>32.8</v>
       </c>
+      <c r="K26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">AVERAGE(J7:J26)</f>
+        <v>66.58</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -2027,6 +4153,13 @@
       <c r="J27" s="0" t="n">
         <v>41.4</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">AVERAGE(J8:J27)</f>
+        <v>67.815</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -2059,6 +4192,13 @@
       <c r="J28" s="0" t="n">
         <v>75.3</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">AVERAGE(J9:J28)</f>
+        <v>63.56</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -2091,6 +4231,13 @@
       <c r="J29" s="0" t="n">
         <v>33.9</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">AVERAGE(J10:J29)</f>
+        <v>58.315</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -2123,6 +4270,13 @@
       <c r="J30" s="0" t="n">
         <v>56.6</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">AVERAGE(J11:J30)</f>
+        <v>58.135</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -2155,6 +4309,13 @@
       <c r="J31" s="0" t="n">
         <v>11.1</v>
       </c>
+      <c r="K31" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">AVERAGE(J12:J31)</f>
+        <v>57.385</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -2187,6 +4348,13 @@
       <c r="J32" s="0" t="n">
         <v>-33.7</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">AVERAGE(J13:J32)</f>
+        <v>55.47</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -2219,6 +4387,13 @@
       <c r="J33" s="0" t="n">
         <v>1.5</v>
       </c>
+      <c r="K33" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">AVERAGE(J14:J33)</f>
+        <v>51.005</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -2251,6 +4426,13 @@
       <c r="J34" s="0" t="n">
         <v>6.6</v>
       </c>
+      <c r="K34" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">AVERAGE(J15:J34)</f>
+        <v>34.875</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -2283,6 +4465,13 @@
       <c r="J35" s="0" t="n">
         <v>28.9</v>
       </c>
+      <c r="K35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">AVERAGE(J16:J35)</f>
+        <v>34.39</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -2315,6 +4504,13 @@
       <c r="J36" s="0" t="n">
         <v>148.3</v>
       </c>
+      <c r="K36" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">AVERAGE(J17:J36)</f>
+        <v>40.45</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -2347,6 +4543,13 @@
       <c r="J37" s="0" t="n">
         <v>56.7</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">AVERAGE(J18:J37)</f>
+        <v>41.605</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -2379,6 +4582,13 @@
       <c r="J38" s="0" t="n">
         <v>154.7</v>
       </c>
+      <c r="K38" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">AVERAGE(J19:J38)</f>
+        <v>47.535</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -2411,6 +4621,13 @@
       <c r="J39" s="0" t="n">
         <v>32.8</v>
       </c>
+      <c r="K39" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">AVERAGE(J20:J39)</f>
+        <v>44.74</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -2443,6 +4660,13 @@
       <c r="J40" s="0" t="n">
         <v>19.2</v>
       </c>
+      <c r="K40" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">AVERAGE(J21:J40)</f>
+        <v>42.665</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -2475,6 +4699,13 @@
       <c r="J41" s="0" t="n">
         <v>118.3</v>
       </c>
+      <c r="K41" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">AVERAGE(J22:J41)</f>
+        <v>46.005</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -2507,6 +4738,13 @@
       <c r="J42" s="0" t="n">
         <v>8.9</v>
       </c>
+      <c r="K42" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">AVERAGE(J23:J42)</f>
+        <v>44.635</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -2539,6 +4777,13 @@
       <c r="J43" s="0" t="n">
         <v>54.6</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">AVERAGE(J24:J43)</f>
+        <v>45.805</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -2571,6 +4816,13 @@
       <c r="J44" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">AVERAGE(J25:J44)</f>
+        <v>45.69</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -2603,6 +4855,13 @@
       <c r="J45" s="0" t="n">
         <v>76.6</v>
       </c>
+      <c r="K45" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">AVERAGE(J26:J45)</f>
+        <v>46.235</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -2635,6 +4894,13 @@
       <c r="J46" s="0" t="n">
         <v>1.9</v>
       </c>
+      <c r="K46" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">AVERAGE(J27:J46)</f>
+        <v>44.69</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -2667,6 +4933,13 @@
       <c r="J47" s="0" t="n">
         <v>-15</v>
       </c>
+      <c r="K47" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">AVERAGE(J28:J47)</f>
+        <v>41.87</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -2699,6 +4972,13 @@
       <c r="J48" s="0" t="n">
         <v>-3.8</v>
       </c>
+      <c r="K48" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">AVERAGE(J29:J48)</f>
+        <v>37.915</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -2731,6 +5011,13 @@
       <c r="J49" s="0" t="n">
         <v>46.6</v>
       </c>
+      <c r="K49" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">AVERAGE(J30:J49)</f>
+        <v>38.55</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -2763,6 +5050,13 @@
       <c r="J50" s="0" t="n">
         <v>-7.5</v>
       </c>
+      <c r="K50" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">AVERAGE(J31:J50)</f>
+        <v>35.345</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -2795,6 +5089,13 @@
       <c r="J51" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="K51" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">AVERAGE(J32:J51)</f>
+        <v>36.99</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -2827,6 +5128,13 @@
       <c r="J52" s="0" t="n">
         <v>11.3</v>
       </c>
+      <c r="K52" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">AVERAGE(J33:J52)</f>
+        <v>39.24</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -2859,6 +5167,13 @@
       <c r="J53" s="0" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K53" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">AVERAGE(J34:J53)</f>
+        <v>39.13</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -2891,6 +5206,13 @@
       <c r="J54" s="0" t="n">
         <v>14.8</v>
       </c>
+      <c r="K54" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">AVERAGE(J35:J54)</f>
+        <v>39.54</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -2923,6 +5245,13 @@
       <c r="J55" s="0" t="n">
         <v>73.5</v>
       </c>
+      <c r="K55" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">AVERAGE(J36:J55)</f>
+        <v>41.77</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -2955,6 +5284,13 @@
       <c r="J56" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="K56" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">AVERAGE(J37:J56)</f>
+        <v>37.105</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -2987,6 +5323,13 @@
       <c r="J57" s="0" t="n">
         <v>49.3</v>
       </c>
+      <c r="K57" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">AVERAGE(J38:J57)</f>
+        <v>36.735</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -3019,6 +5362,13 @@
       <c r="J58" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="K58" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">AVERAGE(J39:J58)</f>
+        <v>29.55</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -3051,6 +5401,13 @@
       <c r="J59" s="0" t="n">
         <v>1.5</v>
       </c>
+      <c r="K59" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">AVERAGE(J40:J59)</f>
+        <v>27.985</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -3083,6 +5440,13 @@
       <c r="J60" s="0" t="n">
         <v>30.3</v>
       </c>
+      <c r="K60" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">AVERAGE(J41:J60)</f>
+        <v>28.54</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -3115,6 +5479,13 @@
       <c r="J61" s="0" t="n">
         <v>10.8</v>
       </c>
+      <c r="K61" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">AVERAGE(J42:J61)</f>
+        <v>23.165</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -3147,6 +5518,13 @@
       <c r="J62" s="0" t="n">
         <v>10.8</v>
       </c>
+      <c r="K62" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">AVERAGE(J43:J62)</f>
+        <v>23.26</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -3179,6 +5557,13 @@
       <c r="J63" s="0" t="n">
         <v>47.8</v>
       </c>
+      <c r="K63" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">AVERAGE(J44:J63)</f>
+        <v>22.92</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -3211,6 +5596,13 @@
       <c r="J64" s="0" t="n">
         <v>-2.7</v>
       </c>
+      <c r="K64" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">AVERAGE(J45:J64)</f>
+        <v>22.775</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -3243,6 +5635,13 @@
       <c r="J65" s="0" t="n">
         <v>47.1</v>
       </c>
+      <c r="K65" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">AVERAGE(J46:J65)</f>
+        <v>21.3</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -3275,6 +5674,13 @@
       <c r="J66" s="0" t="n">
         <v>-52.9</v>
       </c>
+      <c r="K66" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">AVERAGE(J47:J66)</f>
+        <v>18.56</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -3307,6 +5713,13 @@
       <c r="J67" s="0" t="n">
         <v>133.7</v>
       </c>
+      <c r="K67" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">AVERAGE(J48:J67)</f>
+        <v>25.995</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -3339,6 +5752,13 @@
       <c r="J68" s="0" t="n">
         <v>40.1</v>
       </c>
+      <c r="K68" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">AVERAGE(J49:J68)</f>
+        <v>28.19</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -3371,6 +5791,13 @@
       <c r="J69" s="0" t="n">
         <v>91.4</v>
       </c>
+      <c r="K69" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <f aca="false">AVERAGE(J50:J69)</f>
+        <v>30.43</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -3403,6 +5830,13 @@
       <c r="J70" s="0" t="n">
         <v>-7.2</v>
       </c>
+      <c r="K70" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">AVERAGE(J51:J70)</f>
+        <v>30.445</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -3435,6 +5869,13 @@
       <c r="J71" s="0" t="n">
         <v>-20.3</v>
       </c>
+      <c r="K71" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <f aca="false">AVERAGE(J52:J71)</f>
+        <v>27.23</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -3467,6 +5908,13 @@
       <c r="J72" s="0" t="n">
         <v>42.2</v>
       </c>
+      <c r="K72" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <f aca="false">AVERAGE(J53:J72)</f>
+        <v>28.775</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -3499,6 +5947,13 @@
       <c r="J73" s="0" t="n">
         <v>59.5</v>
       </c>
+      <c r="K73" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">AVERAGE(J54:J73)</f>
+        <v>31.785</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -3531,6 +5986,13 @@
       <c r="J74" s="0" t="n">
         <v>31.9</v>
       </c>
+      <c r="K74" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">AVERAGE(J55:J74)</f>
+        <v>32.64</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -3563,6 +6025,13 @@
       <c r="J75" s="0" t="n">
         <v>87.6</v>
       </c>
+      <c r="K75" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">AVERAGE(J56:J75)</f>
+        <v>33.345</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -3595,6 +6064,13 @@
       <c r="J76" s="0" t="n">
         <v>32.6</v>
       </c>
+      <c r="K76" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">AVERAGE(J57:J76)</f>
+        <v>32.225</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -3627,6 +6103,13 @@
       <c r="J77" s="0" t="n">
         <v>26.7</v>
       </c>
+      <c r="K77" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <f aca="false">AVERAGE(J58:J77)</f>
+        <v>31.095</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -3659,6 +6142,13 @@
       <c r="J78" s="0" t="n">
         <v>24.6</v>
       </c>
+      <c r="K78" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <f aca="false">AVERAGE(J59:J78)</f>
+        <v>31.775</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -3691,6 +6181,13 @@
       <c r="J79" s="0" t="n">
         <v>85.5</v>
       </c>
+      <c r="K79" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <f aca="false">AVERAGE(J60:J79)</f>
+        <v>35.975</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -3723,6 +6220,13 @@
       <c r="J80" s="0" t="n">
         <v>64.2</v>
       </c>
+      <c r="K80" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <f aca="false">AVERAGE(J61:J80)</f>
+        <v>37.67</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -3755,6 +6259,13 @@
       <c r="J81" s="0" t="n">
         <v>113</v>
       </c>
+      <c r="K81" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <f aca="false">AVERAGE(J62:J81)</f>
+        <v>42.78</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -3787,6 +6298,13 @@
       <c r="J82" s="0" t="n">
         <v>30.2</v>
       </c>
+      <c r="K82" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <f aca="false">AVERAGE(J63:J82)</f>
+        <v>43.75</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
@@ -3819,6 +6337,13 @@
       <c r="J83" s="0" t="n">
         <v>19.3</v>
       </c>
+      <c r="K83" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <f aca="false">AVERAGE(J64:J83)</f>
+        <v>42.325</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
@@ -3851,6 +6376,13 @@
       <c r="J84" s="0" t="n">
         <v>17.4</v>
       </c>
+      <c r="K84" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <f aca="false">AVERAGE(J65:J84)</f>
+        <v>43.33</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -3883,6 +6415,13 @@
       <c r="J85" s="0" t="n">
         <v>8.3</v>
       </c>
+      <c r="K85" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <f aca="false">AVERAGE(J66:J85)</f>
+        <v>41.39</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -3915,6 +6454,13 @@
       <c r="J86" s="0" t="n">
         <v>-34.4</v>
       </c>
+      <c r="K86" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <f aca="false">AVERAGE(J67:J86)</f>
+        <v>42.315</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
@@ -3947,6 +6493,13 @@
       <c r="J87" s="0" t="n">
         <v>164.8</v>
       </c>
+      <c r="K87" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <f aca="false">AVERAGE(J68:J87)</f>
+        <v>43.87</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -3979,6 +6532,13 @@
       <c r="J88" s="0" t="n">
         <v>3.1</v>
       </c>
+      <c r="K88" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <f aca="false">AVERAGE(J69:J88)</f>
+        <v>42.02</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -4011,6 +6571,13 @@
       <c r="J89" s="0" t="n">
         <v>54.1</v>
       </c>
+      <c r="K89" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <f aca="false">AVERAGE(J70:J89)</f>
+        <v>40.155</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -4043,6 +6610,13 @@
       <c r="J90" s="0" t="n">
         <v>18.3</v>
       </c>
+      <c r="K90" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <f aca="false">AVERAGE(J71:J90)</f>
+        <v>41.43</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -4075,6 +6649,13 @@
       <c r="J91" s="0" t="n">
         <v>35.9</v>
       </c>
+      <c r="K91" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <f aca="false">AVERAGE(J72:J91)</f>
+        <v>44.24</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -4107,6 +6688,13 @@
       <c r="J92" s="0" t="n">
         <v>118.2</v>
       </c>
+      <c r="K92" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <f aca="false">AVERAGE(J73:J92)</f>
+        <v>48.04</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -4139,6 +6727,13 @@
       <c r="J93" s="0" t="n">
         <v>126.8</v>
       </c>
+      <c r="K93" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">AVERAGE(J74:J93)</f>
+        <v>51.405</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
@@ -4171,6 +6766,13 @@
       <c r="J94" s="0" t="n">
         <v>212.1</v>
       </c>
+      <c r="K94" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <f aca="false">AVERAGE(J75:J94)</f>
+        <v>60.415</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
@@ -4203,6 +6805,13 @@
       <c r="J95" s="0" t="n">
         <v>98.7</v>
       </c>
+      <c r="K95" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <f aca="false">AVERAGE(J76:J95)</f>
+        <v>60.97</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
@@ -4235,6 +6844,13 @@
       <c r="J96" s="0" t="n">
         <v>134.6</v>
       </c>
+      <c r="K96" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">AVERAGE(J77:J96)</f>
+        <v>66.07</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -4267,6 +6883,13 @@
       <c r="J97" s="0" t="n">
         <v>100.7</v>
       </c>
+      <c r="K97" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">AVERAGE(J78:J97)</f>
+        <v>69.77</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
@@ -4299,6 +6922,13 @@
       <c r="J98" s="0" t="n">
         <v>8.8</v>
       </c>
+      <c r="K98" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">AVERAGE(J79:J98)</f>
+        <v>68.98</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
@@ -4331,6 +6961,13 @@
       <c r="J99" s="0" t="n">
         <v>14.1</v>
       </c>
+      <c r="K99" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <f aca="false">AVERAGE(J80:J99)</f>
+        <v>65.41</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
@@ -4363,6 +7000,13 @@
       <c r="J100" s="0" t="n">
         <v>38.9</v>
       </c>
+      <c r="K100" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <f aca="false">AVERAGE(J81:J100)</f>
+        <v>64.145</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
@@ -4395,6 +7039,13 @@
       <c r="J101" s="0" t="n">
         <v>68.8</v>
       </c>
+      <c r="K101" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <f aca="false">AVERAGE(J82:J101)</f>
+        <v>61.935</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
@@ -4427,6 +7078,13 @@
       <c r="J102" s="0" t="n">
         <v>52.8</v>
       </c>
+      <c r="K102" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <f aca="false">AVERAGE(J83:J102)</f>
+        <v>63.065</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
@@ -4459,6 +7117,13 @@
       <c r="J103" s="0" t="n">
         <v>58.6</v>
       </c>
+      <c r="K103" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <f aca="false">AVERAGE(J84:J103)</f>
+        <v>65.03</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
@@ -4491,6 +7156,13 @@
       <c r="J104" s="0" t="n">
         <v>24.2</v>
       </c>
+      <c r="K104" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <f aca="false">AVERAGE(J85:J104)</f>
+        <v>65.37</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -4523,6 +7195,13 @@
       <c r="J105" s="0" t="n">
         <v>-15.6</v>
       </c>
+      <c r="K105" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <f aca="false">AVERAGE(J86:J105)</f>
+        <v>64.175</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
@@ -4555,6 +7234,13 @@
       <c r="J106" s="0" t="n">
         <v>29.1</v>
       </c>
+      <c r="K106" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <f aca="false">AVERAGE(J87:J106)</f>
+        <v>67.35</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
@@ -4587,6 +7273,13 @@
       <c r="J107" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K107" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <f aca="false">AVERAGE(J88:J107)</f>
+        <v>59.31</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
@@ -4619,6 +7312,13 @@
       <c r="J108" s="0" t="n">
         <v>97.7</v>
       </c>
+      <c r="K108" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <f aca="false">AVERAGE(J89:J108)</f>
+        <v>64.04</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
@@ -4651,6 +7351,13 @@
       <c r="J109" s="0" t="n">
         <v>18.9</v>
       </c>
+      <c r="K109" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <f aca="false">AVERAGE(J90:J109)</f>
+        <v>62.28</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
@@ -4683,6 +7390,13 @@
       <c r="J110" s="0" t="n">
         <v>53</v>
       </c>
+      <c r="K110" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <f aca="false">AVERAGE(J91:J110)</f>
+        <v>64.015</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
@@ -4715,6 +7429,13 @@
       <c r="J111" s="0" t="n">
         <v>21.9</v>
       </c>
+      <c r="K111" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <f aca="false">AVERAGE(J92:J111)</f>
+        <v>63.315</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
@@ -4747,6 +7468,13 @@
       <c r="J112" s="0" t="n">
         <v>92.4</v>
       </c>
+      <c r="K112" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <f aca="false">AVERAGE(J93:J112)</f>
+        <v>62.025</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
@@ -4779,6 +7507,13 @@
       <c r="J113" s="0" t="n">
         <v>46.7</v>
       </c>
+      <c r="K113" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <f aca="false">AVERAGE(J94:J113)</f>
+        <v>58.02</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
@@ -4811,6 +7546,13 @@
       <c r="J114" s="0" t="n">
         <v>44.4</v>
       </c>
+      <c r="K114" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <f aca="false">AVERAGE(J95:J114)</f>
+        <v>49.635</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
@@ -4843,6 +7585,13 @@
       <c r="J115" s="0" t="n">
         <v>80.7</v>
       </c>
+      <c r="K115" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <f aca="false">AVERAGE(J96:J115)</f>
+        <v>48.735</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
@@ -4875,6 +7624,13 @@
       <c r="J116" s="0" t="n">
         <v>79.2</v>
       </c>
+      <c r="K116" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <f aca="false">AVERAGE(J97:J116)</f>
+        <v>45.965</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
@@ -4907,6 +7663,13 @@
       <c r="J117" s="0" t="n">
         <v>116.4</v>
       </c>
+      <c r="K117" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <f aca="false">AVERAGE(J98:J117)</f>
+        <v>46.75</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -4939,6 +7702,13 @@
       <c r="J118" s="0" t="n">
         <v>72.9</v>
       </c>
+      <c r="K118" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <f aca="false">AVERAGE(J99:J118)</f>
+        <v>49.955</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
@@ -4971,6 +7741,13 @@
       <c r="J119" s="0" t="n">
         <v>54.9</v>
       </c>
+      <c r="K119" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <f aca="false">AVERAGE(J100:J119)</f>
+        <v>51.995</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
@@ -5003,6 +7780,13 @@
       <c r="J120" s="0" t="n">
         <v>-22.8</v>
       </c>
+      <c r="K120" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <f aca="false">AVERAGE(J101:J120)</f>
+        <v>48.91</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
@@ -5035,6 +7819,13 @@
       <c r="J121" s="0" t="n">
         <v>60.2</v>
       </c>
+      <c r="K121" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <f aca="false">AVERAGE(J102:J121)</f>
+        <v>48.48</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
@@ -5067,6 +7858,13 @@
       <c r="J122" s="0" t="n">
         <v>35.3</v>
       </c>
+      <c r="K122" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <f aca="false">AVERAGE(J103:J122)</f>
+        <v>47.605</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
@@ -5099,6 +7897,13 @@
       <c r="J123" s="0" t="n">
         <v>90.3</v>
       </c>
+      <c r="K123" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <f aca="false">AVERAGE(J104:J123)</f>
+        <v>49.19</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
@@ -5131,6 +7936,13 @@
       <c r="J124" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="K124" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <f aca="false">AVERAGE(J105:J124)</f>
+        <v>47.99</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
@@ -5163,6 +7975,13 @@
       <c r="J125" s="0" t="n">
         <v>75.9</v>
       </c>
+      <c r="K125" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <f aca="false">AVERAGE(J106:J125)</f>
+        <v>52.565</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
@@ -5195,6 +8014,13 @@
       <c r="J126" s="0" t="n">
         <v>14.6</v>
       </c>
+      <c r="K126" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <f aca="false">AVERAGE(J107:J126)</f>
+        <v>51.84</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
@@ -5227,6 +8053,13 @@
       <c r="J127" s="0" t="n">
         <v>93.6</v>
       </c>
+      <c r="K127" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <f aca="false">AVERAGE(J108:J127)</f>
+        <v>56.32</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -5259,6 +8092,13 @@
       <c r="J128" s="0" t="n">
         <v>12.8</v>
       </c>
+      <c r="K128" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <f aca="false">AVERAGE(J109:J128)</f>
+        <v>52.075</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
@@ -5291,6 +8131,13 @@
       <c r="J129" s="0" t="n">
         <v>53.4</v>
       </c>
+      <c r="K129" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <f aca="false">AVERAGE(J110:J129)</f>
+        <v>53.8</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
@@ -5323,6 +8170,13 @@
       <c r="J130" s="0" t="n">
         <v>164.4</v>
       </c>
+      <c r="K130" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <f aca="false">AVERAGE(J111:J130)</f>
+        <v>59.37</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
@@ -5355,6 +8209,13 @@
       <c r="J131" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="K131" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <f aca="false">AVERAGE(J112:J131)</f>
+        <v>58.3</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
@@ -5387,6 +8248,13 @@
       <c r="J132" s="0" t="n">
         <v>14.8</v>
       </c>
+      <c r="K132" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <f aca="false">AVERAGE(J113:J132)</f>
+        <v>54.42</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
@@ -5419,6 +8287,13 @@
       <c r="J133" s="0" t="n">
         <v>18</v>
       </c>
+      <c r="K133" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <f aca="false">AVERAGE(J114:J133)</f>
+        <v>52.985</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -5451,6 +8326,13 @@
       <c r="J134" s="0" t="n">
         <v>463.6</v>
       </c>
+      <c r="K134" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <f aca="false">AVERAGE(J115:J134)</f>
+        <v>73.945</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -5483,6 +8365,13 @@
       <c r="J135" s="0" t="n">
         <v>67.6</v>
       </c>
+      <c r="K135" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <f aca="false">AVERAGE(J116:J135)</f>
+        <v>73.29</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -5515,6 +8404,13 @@
       <c r="J136" s="0" t="n">
         <v>56.6</v>
       </c>
+      <c r="K136" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <f aca="false">AVERAGE(J117:J136)</f>
+        <v>72.16</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -5547,6 +8443,13 @@
       <c r="J137" s="0" t="n">
         <v>-17.4</v>
       </c>
+      <c r="K137" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <f aca="false">AVERAGE(J118:J137)</f>
+        <v>65.47</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
@@ -5579,6 +8482,13 @@
       <c r="J138" s="0" t="n">
         <v>11.2</v>
       </c>
+      <c r="K138" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <f aca="false">AVERAGE(J119:J138)</f>
+        <v>62.385</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -5611,6 +8521,13 @@
       <c r="J139" s="0" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K139" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <f aca="false">AVERAGE(J120:J139)</f>
+        <v>59.605</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
@@ -5643,6 +8560,13 @@
       <c r="J140" s="0" t="n">
         <v>36.6</v>
       </c>
+      <c r="K140" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <f aca="false">AVERAGE(J121:J140)</f>
+        <v>62.575</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -5675,6 +8599,13 @@
       <c r="J141" s="0" t="n">
         <v>3.3</v>
       </c>
+      <c r="K141" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <f aca="false">AVERAGE(J122:J141)</f>
+        <v>59.73</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -5707,6 +8638,13 @@
       <c r="J142" s="0" t="n">
         <v>7.2</v>
       </c>
+      <c r="K142" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <f aca="false">AVERAGE(J123:J142)</f>
+        <v>58.325</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -5739,6 +8677,13 @@
       <c r="J143" s="0" t="n">
         <v>14.2</v>
       </c>
+      <c r="K143" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <f aca="false">AVERAGE(J124:J143)</f>
+        <v>54.52</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -5771,6 +8716,13 @@
       <c r="J144" s="0" t="n">
         <v>-34.1</v>
       </c>
+      <c r="K144" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <f aca="false">AVERAGE(J125:J144)</f>
+        <v>52.805</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -5803,6 +8755,13 @@
       <c r="J145" s="0" t="n">
         <v>27.8</v>
       </c>
+      <c r="K145" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <f aca="false">AVERAGE(J126:J145)</f>
+        <v>50.4</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -5835,6 +8794,13 @@
       <c r="J146" s="0" t="n">
         <v>11.6</v>
       </c>
+      <c r="K146" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <f aca="false">AVERAGE(J127:J146)</f>
+        <v>50.25</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -5867,6 +8833,13 @@
       <c r="J147" s="0" t="n">
         <v>83.1</v>
       </c>
+      <c r="K147" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <f aca="false">AVERAGE(J128:J147)</f>
+        <v>49.725</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -5899,6 +8872,13 @@
       <c r="J148" s="0" t="n">
         <v>26.8</v>
       </c>
+      <c r="K148" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <f aca="false">AVERAGE(J129:J148)</f>
+        <v>50.425</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -5931,6 +8911,13 @@
       <c r="J149" s="0" t="n">
         <v>-8.3</v>
       </c>
+      <c r="K149" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <f aca="false">AVERAGE(J130:J149)</f>
+        <v>47.34</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
@@ -5963,6 +8950,13 @@
       <c r="J150" s="0" t="n">
         <v>57.5</v>
       </c>
+      <c r="K150" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <f aca="false">AVERAGE(J131:J150)</f>
+        <v>41.995</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -5995,6 +8989,13 @@
       <c r="J151" s="0" t="n">
         <v>-10.3</v>
       </c>
+      <c r="K151" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <f aca="false">AVERAGE(J132:J151)</f>
+        <v>41.455</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
@@ -6027,6 +9028,13 @@
       <c r="J152" s="0" t="n">
         <v>6.8</v>
       </c>
+      <c r="K152" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="L152" s="0" t="n">
+        <f aca="false">AVERAGE(J133:J152)</f>
+        <v>41.055</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
@@ -6059,6 +9067,13 @@
       <c r="J153" s="0" t="n">
         <v>62.8</v>
       </c>
+      <c r="K153" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="L153" s="0" t="n">
+        <f aca="false">AVERAGE(J134:J153)</f>
+        <v>43.295</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
@@ -6091,6 +9106,13 @@
       <c r="J154" s="0" t="n">
         <v>87.7</v>
       </c>
+      <c r="K154" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="L154" s="0" t="n">
+        <f aca="false">AVERAGE(J135:J154)</f>
+        <v>24.5</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
@@ -6123,6 +9145,13 @@
       <c r="J155" s="0" t="n">
         <v>2.7</v>
       </c>
+      <c r="K155" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="L155" s="0" t="n">
+        <f aca="false">AVERAGE(J136:J155)</f>
+        <v>21.255</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -6155,6 +9184,13 @@
       <c r="J156" s="0" t="n">
         <v>20.1</v>
       </c>
+      <c r="K156" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="L156" s="0" t="n">
+        <f aca="false">AVERAGE(J137:J156)</f>
+        <v>19.43</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
@@ -6187,6 +9223,13 @@
       <c r="J157" s="0" t="n">
         <v>15.7</v>
       </c>
+      <c r="K157" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <f aca="false">AVERAGE(J138:J157)</f>
+        <v>21.085</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
@@ -6219,6 +9262,13 @@
       <c r="J158" s="0" t="n">
         <v>97</v>
       </c>
+      <c r="K158" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="L158" s="0" t="n">
+        <f aca="false">AVERAGE(J139:J158)</f>
+        <v>25.375</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
@@ -6251,6 +9301,13 @@
       <c r="J159" s="0" t="n">
         <v>0.3</v>
       </c>
+      <c r="K159" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="L159" s="0" t="n">
+        <f aca="false">AVERAGE(J140:J159)</f>
+        <v>25.425</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -6283,6 +9340,13 @@
       <c r="J160" s="0" t="n">
         <v>67.2</v>
       </c>
+      <c r="K160" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="L160" s="0" t="n">
+        <f aca="false">AVERAGE(J141:J160)</f>
+        <v>26.955</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
@@ -6315,6 +9379,13 @@
       <c r="J161" s="0" t="n">
         <v>91.3</v>
       </c>
+      <c r="K161" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="L161" s="0" t="n">
+        <f aca="false">AVERAGE(J142:J161)</f>
+        <v>31.355</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
@@ -6347,6 +9418,13 @@
       <c r="J162" s="0" t="n">
         <v>61.7</v>
       </c>
+      <c r="K162" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="L162" s="0" t="n">
+        <f aca="false">AVERAGE(J143:J162)</f>
+        <v>34.08</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
@@ -6379,6 +9457,13 @@
       <c r="J163" s="0" t="n">
         <v>16.3</v>
       </c>
+      <c r="K163" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="L163" s="0" t="n">
+        <f aca="false">AVERAGE(J144:J163)</f>
+        <v>34.185</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
@@ -6411,6 +9496,13 @@
       <c r="J164" s="0" t="n">
         <v>23.9</v>
       </c>
+      <c r="K164" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="L164" s="0" t="n">
+        <f aca="false">AVERAGE(J145:J164)</f>
+        <v>37.085</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
@@ -6443,6 +9535,13 @@
       <c r="J165" s="0" t="n">
         <v>20.9</v>
       </c>
+      <c r="K165" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="L165" s="0" t="n">
+        <f aca="false">AVERAGE(J146:J165)</f>
+        <v>36.74</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
@@ -6475,6 +9574,13 @@
       <c r="J166" s="0" t="n">
         <v>58.3</v>
       </c>
+      <c r="K166" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="L166" s="0" t="n">
+        <f aca="false">AVERAGE(J147:J166)</f>
+        <v>39.075</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
@@ -6507,6 +9613,13 @@
       <c r="J167" s="0" t="n">
         <v>4.8</v>
       </c>
+      <c r="K167" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="L167" s="0" t="n">
+        <f aca="false">AVERAGE(J148:J167)</f>
+        <v>35.16</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
@@ -6539,6 +9652,13 @@
       <c r="J168" s="0" t="n">
         <v>79.1</v>
       </c>
+      <c r="K168" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="L168" s="0" t="n">
+        <f aca="false">AVERAGE(J149:J168)</f>
+        <v>37.775</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
@@ -6571,6 +9691,13 @@
       <c r="J169" s="0" t="n">
         <v>62.3</v>
       </c>
+      <c r="K169" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="L169" s="0" t="n">
+        <f aca="false">AVERAGE(J150:J169)</f>
+        <v>41.305</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
@@ -6603,6 +9730,13 @@
       <c r="J170" s="0" t="n">
         <v>53.4</v>
       </c>
+      <c r="K170" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="L170" s="0" t="n">
+        <f aca="false">AVERAGE(J151:J170)</f>
+        <v>41.1</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
@@ -6635,6 +9769,13 @@
       <c r="J171" s="0" t="n">
         <v>23.4</v>
       </c>
+      <c r="K171" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="L171" s="0" t="n">
+        <f aca="false">AVERAGE(J152:J171)</f>
+        <v>42.785</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
@@ -6667,6 +9808,13 @@
       <c r="J172" s="0" t="n">
         <v>13.9</v>
       </c>
+      <c r="K172" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <f aca="false">AVERAGE(J153:J172)</f>
+        <v>43.14</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
@@ -6699,6 +9847,13 @@
       <c r="J173" s="0" t="n">
         <v>-18.8</v>
       </c>
+      <c r="K173" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="L173" s="0" t="n">
+        <f aca="false">AVERAGE(J154:J173)</f>
+        <v>39.06</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
@@ -6731,6 +9886,13 @@
       <c r="J174" s="0" t="n">
         <v>4.4</v>
       </c>
+      <c r="K174" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="L174" s="0" t="n">
+        <f aca="false">AVERAGE(J155:J174)</f>
+        <v>34.895</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
@@ -6763,6 +9925,13 @@
       <c r="J175" s="0" t="n">
         <v>-4.9</v>
       </c>
+      <c r="K175" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="L175" s="0" t="n">
+        <f aca="false">AVERAGE(J156:J175)</f>
+        <v>34.515</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
@@ -6795,6 +9964,13 @@
       <c r="J176" s="0" t="n">
         <v>10.3</v>
       </c>
+      <c r="K176" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="L176" s="0" t="n">
+        <f aca="false">AVERAGE(J157:J176)</f>
+        <v>34.025</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
@@ -6827,6 +10003,13 @@
       <c r="J177" s="0" t="n">
         <v>17.2</v>
       </c>
+      <c r="K177" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="L177" s="0" t="n">
+        <f aca="false">AVERAGE(J158:J177)</f>
+        <v>34.1</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
@@ -6859,6 +10042,13 @@
       <c r="J178" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="K178" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="L178" s="0" t="n">
+        <f aca="false">AVERAGE(J159:J178)</f>
+        <v>30.35</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
@@ -6891,6 +10081,13 @@
       <c r="J179" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="K179" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="L179" s="0" t="n">
+        <f aca="false">AVERAGE(J160:J179)</f>
+        <v>30.345</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
@@ -6923,6 +10120,13 @@
       <c r="J180" s="0" t="n">
         <v>54.1</v>
       </c>
+      <c r="K180" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="L180" s="0" t="n">
+        <f aca="false">AVERAGE(J161:J180)</f>
+        <v>29.69</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
@@ -6955,6 +10159,13 @@
       <c r="J181" s="0" t="n">
         <v>-16.7</v>
       </c>
+      <c r="K181" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="L181" s="0" t="n">
+        <f aca="false">AVERAGE(J162:J181)</f>
+        <v>24.29</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
@@ -6987,6 +10198,13 @@
       <c r="J182" s="0" t="n">
         <v>57.2</v>
       </c>
+      <c r="K182" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <f aca="false">AVERAGE(J163:J182)</f>
+        <v>24.065</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
@@ -7019,6 +10237,13 @@
       <c r="J183" s="0" t="n">
         <v>60.9</v>
       </c>
+      <c r="K183" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="L183" s="0" t="n">
+        <f aca="false">AVERAGE(J164:J183)</f>
+        <v>26.295</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
@@ -7051,6 +10276,13 @@
       <c r="J184" s="0" t="n">
         <v>119.6</v>
       </c>
+      <c r="K184" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="L184" s="0" t="n">
+        <f aca="false">AVERAGE(J165:J184)</f>
+        <v>31.08</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
@@ -7083,6 +10315,13 @@
       <c r="J185" s="0" t="n">
         <v>0.2</v>
       </c>
+      <c r="K185" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="L185" s="0" t="n">
+        <f aca="false">AVERAGE(J166:J185)</f>
+        <v>30.045</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
@@ -7115,6 +10354,13 @@
       <c r="J186" s="0" t="n">
         <v>-1.4</v>
       </c>
+      <c r="K186" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <f aca="false">AVERAGE(J167:J186)</f>
+        <v>27.06</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
@@ -7147,6 +10393,13 @@
       <c r="J187" s="0" t="n">
         <v>-4.2</v>
       </c>
+      <c r="K187" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="L187" s="0" t="n">
+        <f aca="false">AVERAGE(J168:J187)</f>
+        <v>26.61</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
@@ -7179,6 +10432,13 @@
       <c r="J188" s="0" t="n">
         <v>28.9</v>
       </c>
+      <c r="K188" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="L188" s="0" t="n">
+        <f aca="false">AVERAGE(J169:J188)</f>
+        <v>24.1</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
@@ -7211,6 +10471,13 @@
       <c r="J189" s="0" t="n">
         <v>62.2</v>
       </c>
+      <c r="K189" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="L189" s="0" t="n">
+        <f aca="false">AVERAGE(J170:J189)</f>
+        <v>24.095</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
@@ -7243,6 +10510,13 @@
       <c r="J190" s="0" t="n">
         <v>38.3</v>
       </c>
+      <c r="K190" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="L190" s="0" t="n">
+        <f aca="false">AVERAGE(J171:J190)</f>
+        <v>23.34</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
@@ -7275,6 +10549,13 @@
       <c r="J191" s="0" t="n">
         <v>82.5</v>
       </c>
+      <c r="K191" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="L191" s="0" t="n">
+        <f aca="false">AVERAGE(J172:J191)</f>
+        <v>26.295</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
@@ -7307,6 +10588,13 @@
       <c r="J192" s="0" t="n">
         <v>265.6</v>
       </c>
+      <c r="K192" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="L192" s="0" t="n">
+        <f aca="false">AVERAGE(J173:J192)</f>
+        <v>38.88</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
@@ -7339,6 +10627,13 @@
       <c r="J193" s="0" t="n">
         <v>57.7</v>
       </c>
+      <c r="K193" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <f aca="false">AVERAGE(J174:J193)</f>
+        <v>42.705</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
@@ -7371,6 +10666,13 @@
       <c r="J194" s="0" t="n">
         <v>-14.1</v>
       </c>
+      <c r="K194" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="L194" s="0" t="n">
+        <f aca="false">AVERAGE(J175:J194)</f>
+        <v>41.78</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
@@ -7403,6 +10705,13 @@
       <c r="J195" s="0" t="n">
         <v>224.7</v>
       </c>
+      <c r="K195" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="L195" s="0" t="n">
+        <f aca="false">AVERAGE(J176:J195)</f>
+        <v>53.26</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
@@ -7435,6 +10744,13 @@
       <c r="J196" s="0" t="n">
         <v>8.7</v>
       </c>
+      <c r="K196" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <f aca="false">AVERAGE(J177:J196)</f>
+        <v>53.18</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
@@ -7467,6 +10783,13 @@
       <c r="J197" s="0" t="n">
         <v>47.6</v>
       </c>
+      <c r="K197" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <f aca="false">AVERAGE(J178:J197)</f>
+        <v>54.7</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
@@ -7499,6 +10822,13 @@
       <c r="J198" s="0" t="n">
         <v>18.9</v>
       </c>
+      <c r="K198" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <f aca="false">AVERAGE(J179:J198)</f>
+        <v>54.545</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
@@ -7531,6 +10861,13 @@
       <c r="J199" s="0" t="n">
         <v>3.5</v>
       </c>
+      <c r="K199" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="L199" s="0" t="n">
+        <f aca="false">AVERAGE(J180:J199)</f>
+        <v>54.71</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
@@ -7563,6 +10900,13 @@
       <c r="J200" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="K200" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="L200" s="0" t="n">
+        <f aca="false">AVERAGE(J181:J200)</f>
+        <v>52.03</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
@@ -7595,6 +10939,13 @@
       <c r="J201" s="0" t="n">
         <v>77.3</v>
       </c>
+      <c r="K201" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <f aca="false">AVERAGE(J182:J201)</f>
+        <v>56.73</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
@@ -7627,6 +10978,13 @@
       <c r="J202" s="0" t="n">
         <v>24.9</v>
       </c>
+      <c r="K202" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="L202" s="0" t="n">
+        <f aca="false">AVERAGE(J183:J202)</f>
+        <v>55.115</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
@@ -7659,6 +11017,13 @@
       <c r="J203" s="0" t="n">
         <v>35.4</v>
       </c>
+      <c r="K203" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="L203" s="0" t="n">
+        <f aca="false">AVERAGE(J184:J203)</f>
+        <v>53.84</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
@@ -7691,6 +11056,13 @@
       <c r="J204" s="0" t="n">
         <v>57.2</v>
       </c>
+      <c r="K204" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="L204" s="0" t="n">
+        <f aca="false">AVERAGE(J185:J204)</f>
+        <v>50.72</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
@@ -7723,6 +11095,13 @@
       <c r="J205" s="0" t="n">
         <v>7.7</v>
       </c>
+      <c r="K205" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="L205" s="0" t="n">
+        <f aca="false">AVERAGE(J186:J205)</f>
+        <v>51.095</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
@@ -7755,6 +11134,13 @@
       <c r="J206" s="0" t="n">
         <v>31.9</v>
       </c>
+      <c r="K206" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="L206" s="0" t="n">
+        <f aca="false">AVERAGE(J187:J206)</f>
+        <v>52.76</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
@@ -7787,6 +11173,13 @@
       <c r="J207" s="0" t="n">
         <v>-1.6</v>
       </c>
+      <c r="K207" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="L207" s="0" t="n">
+        <f aca="false">AVERAGE(J188:J207)</f>
+        <v>52.89</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
@@ -7819,6 +11212,13 @@
       <c r="J208" s="0" t="n">
         <v>19.1</v>
       </c>
+      <c r="K208" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="L208" s="0" t="n">
+        <f aca="false">AVERAGE(J189:J208)</f>
+        <v>52.4</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
@@ -7851,6 +11251,13 @@
       <c r="J209" s="0" t="n">
         <v>24.1</v>
       </c>
+      <c r="K209" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="L209" s="0" t="n">
+        <f aca="false">AVERAGE(J190:J209)</f>
+        <v>50.495</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
@@ -7883,6 +11290,13 @@
       <c r="J210" s="0" t="n">
         <v>-4.8</v>
       </c>
+      <c r="K210" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="L210" s="0" t="n">
+        <f aca="false">AVERAGE(J191:J210)</f>
+        <v>48.34</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
@@ -7915,6 +11329,13 @@
       <c r="J211" s="0" t="n">
         <v>32.3</v>
       </c>
+      <c r="K211" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="L211" s="0" t="n">
+        <f aca="false">AVERAGE(J192:J211)</f>
+        <v>45.83</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
@@ -7947,6 +11368,13 @@
       <c r="J212" s="0" t="n">
         <v>36.8</v>
       </c>
+      <c r="K212" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="L212" s="0" t="n">
+        <f aca="false">AVERAGE(J193:J212)</f>
+        <v>34.39</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
@@ -7979,6 +11407,13 @@
       <c r="J213" s="0" t="n">
         <v>48.3</v>
       </c>
+      <c r="K213" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="L213" s="0" t="n">
+        <f aca="false">AVERAGE(J194:J213)</f>
+        <v>33.92</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
@@ -8011,6 +11446,13 @@
       <c r="J214" s="0" t="n">
         <v>56.1</v>
       </c>
+      <c r="K214" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="L214" s="0" t="n">
+        <f aca="false">AVERAGE(J195:J214)</f>
+        <v>37.43</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
@@ -8043,6 +11485,13 @@
       <c r="J215" s="0" t="n">
         <v>17.3</v>
       </c>
+      <c r="K215" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="L215" s="0" t="n">
+        <f aca="false">AVERAGE(J196:J215)</f>
+        <v>27.06</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
@@ -8075,6 +11524,13 @@
       <c r="J216" s="0" t="n">
         <v>1.8</v>
       </c>
+      <c r="K216" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="L216" s="0" t="n">
+        <f aca="false">AVERAGE(J197:J216)</f>
+        <v>26.715</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
@@ -8107,6 +11563,13 @@
       <c r="J217" s="0" t="n">
         <v>58.5</v>
       </c>
+      <c r="K217" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="L217" s="0" t="n">
+        <f aca="false">AVERAGE(J198:J217)</f>
+        <v>27.26</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
@@ -8139,6 +11602,13 @@
       <c r="J218" s="0" t="n">
         <v>135.5</v>
       </c>
+      <c r="K218" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="L218" s="0" t="n">
+        <f aca="false">AVERAGE(J199:J218)</f>
+        <v>33.09</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
@@ -8171,6 +11641,13 @@
       <c r="J219" s="0" t="n">
         <v>14.6</v>
       </c>
+      <c r="K219" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="L219" s="0" t="n">
+        <f aca="false">AVERAGE(J200:J219)</f>
+        <v>33.645</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
@@ -8203,6 +11680,13 @@
       <c r="J220" s="0" t="n">
         <v>21.8</v>
       </c>
+      <c r="K220" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L220" s="0" t="n">
+        <f aca="false">AVERAGE(J201:J220)</f>
+        <v>34.71</v>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
@@ -8235,6 +11719,13 @@
       <c r="J221" s="0" t="n">
         <v>105.8</v>
       </c>
+      <c r="K221" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="L221" s="0" t="n">
+        <f aca="false">AVERAGE(J202:J221)</f>
+        <v>36.135</v>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
@@ -8267,6 +11758,13 @@
       <c r="J222" s="0" t="n">
         <v>20.4</v>
       </c>
+      <c r="K222" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="L222" s="0" t="n">
+        <f aca="false">AVERAGE(J203:J222)</f>
+        <v>35.91</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
@@ -8299,6 +11797,13 @@
       <c r="J223" s="0" t="n">
         <v>33.3</v>
       </c>
+      <c r="K223" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="L223" s="0" t="n">
+        <f aca="false">AVERAGE(J204:J223)</f>
+        <v>35.805</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
@@ -8331,6 +11836,13 @@
       <c r="J224" s="0" t="n">
         <v>70.4</v>
       </c>
+      <c r="K224" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="L224" s="0" t="n">
+        <f aca="false">AVERAGE(J205:J224)</f>
+        <v>36.465</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
@@ -8363,6 +11875,13 @@
       <c r="J225" s="0" t="n">
         <v>152.6</v>
       </c>
+      <c r="K225" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="L225" s="0" t="n">
+        <f aca="false">AVERAGE(J206:J225)</f>
+        <v>43.71</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
@@ -8395,6 +11914,13 @@
       <c r="J226" s="0" t="n">
         <v>90.1</v>
       </c>
+      <c r="K226" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="L226" s="0" t="n">
+        <f aca="false">AVERAGE(J207:J226)</f>
+        <v>46.62</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
@@ -8427,6 +11953,13 @@
       <c r="J227" s="0" t="n">
         <v>4.5</v>
       </c>
+      <c r="K227" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="L227" s="0" t="n">
+        <f aca="false">AVERAGE(J208:J227)</f>
+        <v>46.925</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
@@ -8459,6 +11992,13 @@
       <c r="J228" s="0" t="n">
         <v>30.4</v>
       </c>
+      <c r="K228" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="L228" s="0" t="n">
+        <f aca="false">AVERAGE(J209:J228)</f>
+        <v>47.49</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
@@ -8491,6 +12031,13 @@
       <c r="J229" s="0" t="n">
         <v>24.3</v>
       </c>
+      <c r="K229" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="L229" s="0" t="n">
+        <f aca="false">AVERAGE(J210:J229)</f>
+        <v>47.5</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
@@ -8523,6 +12070,13 @@
       <c r="J230" s="0" t="n">
         <v>29.7</v>
       </c>
+      <c r="K230" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="L230" s="0" t="n">
+        <f aca="false">AVERAGE(J211:J230)</f>
+        <v>49.225</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
@@ -8555,6 +12109,13 @@
       <c r="J231" s="0" t="n">
         <v>-20.8</v>
       </c>
+      <c r="K231" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="L231" s="0" t="n">
+        <f aca="false">AVERAGE(J212:J231)</f>
+        <v>46.57</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
@@ -8587,6 +12148,13 @@
       <c r="J232" s="0" t="n">
         <v>6.2</v>
       </c>
+      <c r="K232" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="L232" s="0" t="n">
+        <f aca="false">AVERAGE(J213:J232)</f>
+        <v>45.04</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
@@ -8619,6 +12187,13 @@
       <c r="J233" s="0" t="n">
         <v>24.8</v>
       </c>
+      <c r="K233" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="L233" s="0" t="n">
+        <f aca="false">AVERAGE(J214:J233)</f>
+        <v>43.865</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
@@ -8651,6 +12226,13 @@
       <c r="J234" s="0" t="n">
         <v>53.9</v>
       </c>
+      <c r="K234" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="L234" s="0" t="n">
+        <f aca="false">AVERAGE(J215:J234)</f>
+        <v>43.755</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
@@ -8683,6 +12265,13 @@
       <c r="J235" s="0" t="n">
         <v>50.8</v>
       </c>
+      <c r="K235" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="L235" s="0" t="n">
+        <f aca="false">AVERAGE(J216:J235)</f>
+        <v>45.43</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
@@ -8715,6 +12304,13 @@
       <c r="J236" s="0" t="n">
         <v>52.3</v>
       </c>
+      <c r="K236" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="L236" s="0" t="n">
+        <f aca="false">AVERAGE(J217:J236)</f>
+        <v>47.955</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
@@ -8747,6 +12343,13 @@
       <c r="J237" s="0" t="n">
         <v>35.1</v>
       </c>
+      <c r="K237" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="L237" s="0" t="n">
+        <f aca="false">AVERAGE(J218:J237)</f>
+        <v>46.785</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
@@ -8779,6 +12382,13 @@
       <c r="J238" s="0" t="n">
         <v>4.6</v>
       </c>
+      <c r="K238" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="L238" s="0" t="n">
+        <f aca="false">AVERAGE(J219:J238)</f>
+        <v>40.24</v>
+      </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
@@ -8811,6 +12421,13 @@
       <c r="J239" s="0" t="n">
         <v>77.8</v>
       </c>
+      <c r="K239" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="L239" s="0" t="n">
+        <f aca="false">AVERAGE(J220:J239)</f>
+        <v>43.4</v>
+      </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
@@ -8843,6 +12460,13 @@
       <c r="J240" s="0" t="n">
         <v>-8.8</v>
       </c>
+      <c r="K240" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="L240" s="0" t="n">
+        <f aca="false">AVERAGE(J221:J240)</f>
+        <v>41.87</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
@@ -8875,6 +12499,13 @@
       <c r="J241" s="0" t="n">
         <v>54.1</v>
       </c>
+      <c r="K241" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="L241" s="0" t="n">
+        <f aca="false">AVERAGE(J222:J241)</f>
+        <v>39.285</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
@@ -8907,6 +12538,13 @@
       <c r="J242" s="0" t="n">
         <v>33.9</v>
       </c>
+      <c r="K242" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="L242" s="0" t="n">
+        <f aca="false">AVERAGE(J223:J242)</f>
+        <v>39.96</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
@@ -8939,6 +12577,13 @@
       <c r="J243" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="K243" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="L243" s="0" t="n">
+        <f aca="false">AVERAGE(J224:J243)</f>
+        <v>38.745</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
@@ -8971,6 +12616,13 @@
       <c r="J244" s="0" t="n">
         <v>-9.9</v>
       </c>
+      <c r="K244" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="L244" s="0" t="n">
+        <f aca="false">AVERAGE(J225:J244)</f>
+        <v>34.73</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
@@ -9003,6 +12655,13 @@
       <c r="J245" s="0" t="n">
         <v>14.2</v>
       </c>
+      <c r="K245" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="L245" s="0" t="n">
+        <f aca="false">AVERAGE(J226:J245)</f>
+        <v>27.81</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
@@ -9035,6 +12694,13 @@
       <c r="J246" s="0" t="n">
         <v>3.4</v>
       </c>
+      <c r="K246" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="L246" s="0" t="n">
+        <f aca="false">AVERAGE(J227:J246)</f>
+        <v>23.475</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
@@ -9067,6 +12733,13 @@
       <c r="J247" s="0" t="n">
         <v>-4.1</v>
       </c>
+      <c r="K247" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <f aca="false">AVERAGE(J228:J247)</f>
+        <v>23.045</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
@@ -9099,6 +12772,13 @@
       <c r="J248" s="0" t="n">
         <v>15.4</v>
       </c>
+      <c r="K248" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <f aca="false">AVERAGE(J229:J248)</f>
+        <v>22.295</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
@@ -9131,6 +12811,13 @@
       <c r="J249" s="0" t="n">
         <v>7.9</v>
       </c>
+      <c r="K249" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="L249" s="0" t="n">
+        <f aca="false">AVERAGE(J230:J249)</f>
+        <v>21.475</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
@@ -9163,6 +12850,13 @@
       <c r="J250" s="0" t="n">
         <v>-10.1</v>
       </c>
+      <c r="K250" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="L250" s="0" t="n">
+        <f aca="false">AVERAGE(J231:J250)</f>
+        <v>19.485</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
@@ -9195,6 +12889,13 @@
       <c r="J251" s="0" t="n">
         <v>79.5</v>
       </c>
+      <c r="K251" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="L251" s="0" t="n">
+        <f aca="false">AVERAGE(J232:J251)</f>
+        <v>24.5</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
@@ -9227,6 +12928,13 @@
       <c r="J252" s="0" t="n">
         <v>92.2</v>
       </c>
+      <c r="K252" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="L252" s="0" t="n">
+        <f aca="false">AVERAGE(J233:J252)</f>
+        <v>28.8</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
@@ -9259,6 +12967,13 @@
       <c r="J253" s="0" t="n">
         <v>44</v>
       </c>
+      <c r="K253" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="L253" s="0" t="n">
+        <f aca="false">AVERAGE(J234:J253)</f>
+        <v>29.76</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
@@ -9291,6 +13006,13 @@
       <c r="J254" s="0" t="n">
         <v>54.3</v>
       </c>
+      <c r="K254" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="L254" s="0" t="n">
+        <f aca="false">AVERAGE(J235:J254)</f>
+        <v>29.78</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
@@ -9323,6 +13045,13 @@
       <c r="J255" s="0" t="n">
         <v>62.8</v>
       </c>
+      <c r="K255" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="L255" s="0" t="n">
+        <f aca="false">AVERAGE(J236:J255)</f>
+        <v>30.38</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
@@ -9355,6 +13084,13 @@
       <c r="J256" s="0" t="n">
         <v>103.4</v>
       </c>
+      <c r="K256" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="L256" s="0" t="n">
+        <f aca="false">AVERAGE(J237:J256)</f>
+        <v>32.935</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
@@ -9387,6 +13123,13 @@
       <c r="J257" s="0" t="n">
         <v>56.3</v>
       </c>
+      <c r="K257" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="L257" s="0" t="n">
+        <f aca="false">AVERAGE(J238:J257)</f>
+        <v>33.995</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
@@ -9419,6 +13162,13 @@
       <c r="J258" s="0" t="n">
         <v>47</v>
       </c>
+      <c r="K258" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="L258" s="0" t="n">
+        <f aca="false">AVERAGE(J239:J258)</f>
+        <v>36.115</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
@@ -9451,6 +13201,13 @@
       <c r="J259" s="0" t="n">
         <v>6.3</v>
       </c>
+      <c r="K259" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="L259" s="0" t="n">
+        <f aca="false">AVERAGE(J240:J259)</f>
+        <v>32.54</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
@@ -9483,6 +13240,13 @@
       <c r="J260" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="K260" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="L260" s="0" t="n">
+        <f aca="false">AVERAGE(J241:J260)</f>
+        <v>34.03</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
@@ -9515,6 +13279,13 @@
       <c r="J261" s="0" t="n">
         <v>0.8</v>
       </c>
+      <c r="K261" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="L261" s="0" t="n">
+        <f aca="false">AVERAGE(J242:J261)</f>
+        <v>31.365</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
@@ -9547,6 +13318,13 @@
       <c r="J262" s="0" t="n">
         <v>48.6</v>
       </c>
+      <c r="K262" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="L262" s="0" t="n">
+        <f aca="false">AVERAGE(J243:J262)</f>
+        <v>32.1</v>
+      </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
@@ -9579,6 +13357,13 @@
       <c r="J263" s="0" t="n">
         <v>178.7</v>
       </c>
+      <c r="K263" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="L263" s="0" t="n">
+        <f aca="false">AVERAGE(J244:J263)</f>
+        <v>40.585</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
@@ -9611,6 +13396,13 @@
       <c r="J264" s="0" t="n">
         <v>-5.5</v>
       </c>
+      <c r="K264" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="L264" s="0" t="n">
+        <f aca="false">AVERAGE(J245:J264)</f>
+        <v>40.805</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
@@ -9643,6 +13435,13 @@
       <c r="J265" s="0" t="n">
         <v>-15.2</v>
       </c>
+      <c r="K265" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="L265" s="0" t="n">
+        <f aca="false">AVERAGE(J246:J265)</f>
+        <v>39.335</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
@@ -9675,6 +13474,13 @@
       <c r="J266" s="0" t="n">
         <v>6.1</v>
       </c>
+      <c r="K266" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="L266" s="0" t="n">
+        <f aca="false">AVERAGE(J247:J266)</f>
+        <v>39.47</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
@@ -9707,6 +13513,13 @@
       <c r="J267" s="0" t="n">
         <v>47.7</v>
       </c>
+      <c r="K267" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="L267" s="0" t="n">
+        <f aca="false">AVERAGE(J248:J267)</f>
+        <v>42.06</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
@@ -9739,6 +13552,13 @@
       <c r="J268" s="0" t="n">
         <v>37.4</v>
       </c>
+      <c r="K268" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="L268" s="0" t="n">
+        <f aca="false">AVERAGE(J249:J268)</f>
+        <v>43.16</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
@@ -9771,6 +13591,13 @@
       <c r="J269" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="K269" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="L269" s="0" t="n">
+        <f aca="false">AVERAGE(J250:J269)</f>
+        <v>47.665</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
@@ -9803,6 +13630,13 @@
       <c r="J270" s="0" t="n">
         <v>62.6</v>
       </c>
+      <c r="K270" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="L270" s="0" t="n">
+        <f aca="false">AVERAGE(J251:J270)</f>
+        <v>51.3</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
@@ -9835,6 +13669,13 @@
       <c r="J271" s="0" t="n">
         <v>41.1</v>
       </c>
+      <c r="K271" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="L271" s="0" t="n">
+        <f aca="false">AVERAGE(J252:J271)</f>
+        <v>49.38</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
@@ -9867,6 +13708,13 @@
       <c r="J272" s="0" t="n">
         <v>19.8</v>
       </c>
+      <c r="K272" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="L272" s="0" t="n">
+        <f aca="false">AVERAGE(J253:J272)</f>
+        <v>45.76</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
@@ -9899,6 +13747,13 @@
       <c r="J273" s="0" t="n">
         <v>89.5</v>
       </c>
+      <c r="K273" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="L273" s="0" t="n">
+        <f aca="false">AVERAGE(J254:J273)</f>
+        <v>48.035</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
@@ -9931,6 +13786,13 @@
       <c r="J274" s="0" t="n">
         <v>31.6</v>
       </c>
+      <c r="K274" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="L274" s="0" t="n">
+        <f aca="false">AVERAGE(J255:J274)</f>
+        <v>46.9</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
@@ -9963,6 +13825,13 @@
       <c r="J275" s="0" t="n">
         <v>62.2</v>
       </c>
+      <c r="K275" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="L275" s="0" t="n">
+        <f aca="false">AVERAGE(J256:J275)</f>
+        <v>46.87</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
@@ -9995,6 +13864,13 @@
       <c r="J276" s="0" t="n">
         <v>110.2</v>
       </c>
+      <c r="K276" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="L276" s="0" t="n">
+        <f aca="false">AVERAGE(J257:J276)</f>
+        <v>47.21</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
@@ -10027,6 +13903,13 @@
       <c r="J277" s="0" t="n">
         <v>61</v>
       </c>
+      <c r="K277" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="L277" s="0" t="n">
+        <f aca="false">AVERAGE(J258:J277)</f>
+        <v>47.445</v>
+      </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
@@ -10059,6 +13942,13 @@
       <c r="J278" s="0" t="n">
         <v>42.9</v>
       </c>
+      <c r="K278" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="L278" s="0" t="n">
+        <f aca="false">AVERAGE(J259:J278)</f>
+        <v>47.24</v>
+      </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
@@ -10091,6 +13981,13 @@
       <c r="J279" s="0" t="n">
         <v>26.7</v>
       </c>
+      <c r="K279" s="0" t="n">
+        <v>259</v>
+      </c>
+      <c r="L279" s="0" t="n">
+        <f aca="false">AVERAGE(J260:J279)</f>
+        <v>48.26</v>
+      </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
@@ -10123,6 +14020,13 @@
       <c r="J280" s="0" t="n">
         <v>45.1</v>
       </c>
+      <c r="K280" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="L280" s="0" t="n">
+        <f aca="false">AVERAGE(J261:J280)</f>
+        <v>49.465</v>
+      </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
@@ -10155,6 +14059,13 @@
       <c r="J281" s="0" t="n">
         <v>12.9</v>
       </c>
+      <c r="K281" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="L281" s="0" t="n">
+        <f aca="false">AVERAGE(J262:J281)</f>
+        <v>50.07</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
@@ -10187,6 +14098,13 @@
       <c r="J282" s="0" t="n">
         <v>48</v>
       </c>
+      <c r="K282" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="L282" s="0" t="n">
+        <f aca="false">AVERAGE(J263:J282)</f>
+        <v>50.04</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
@@ -10219,6 +14137,13 @@
       <c r="J283" s="0" t="n">
         <v>-42.9</v>
       </c>
+      <c r="K283" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="L283" s="0" t="n">
+        <f aca="false">AVERAGE(J264:J283)</f>
+        <v>38.96</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
@@ -10251,6 +14176,13 @@
       <c r="J284" s="0" t="n">
         <v>30.5</v>
       </c>
+      <c r="K284" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="L284" s="0" t="n">
+        <f aca="false">AVERAGE(J265:J284)</f>
+        <v>40.76</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
@@ -10283,6 +14215,13 @@
       <c r="J285" s="0" t="n">
         <v>13.9</v>
       </c>
+      <c r="K285" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="L285" s="0" t="n">
+        <f aca="false">AVERAGE(J266:J285)</f>
+        <v>42.215</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
@@ -10315,6 +14254,13 @@
       <c r="J286" s="0" t="n">
         <v>43</v>
       </c>
+      <c r="K286" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="L286" s="0" t="n">
+        <f aca="false">AVERAGE(J267:J286)</f>
+        <v>44.06</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
@@ -10347,6 +14293,13 @@
       <c r="J287" s="0" t="n">
         <v>23.1</v>
       </c>
+      <c r="K287" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="L287" s="0" t="n">
+        <f aca="false">AVERAGE(J268:J287)</f>
+        <v>42.83</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
@@ -10379,6 +14332,13 @@
       <c r="J288" s="0" t="n">
         <v>154.3</v>
       </c>
+      <c r="K288" s="0" t="n">
+        <v>268</v>
+      </c>
+      <c r="L288" s="0" t="n">
+        <f aca="false">AVERAGE(J269:J288)</f>
+        <v>48.675</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
@@ -10411,6 +14371,13 @@
       <c r="J289" s="0" t="n">
         <v>8.2</v>
       </c>
+      <c r="K289" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="L289" s="0" t="n">
+        <f aca="false">AVERAGE(J270:J289)</f>
+        <v>44.185</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
@@ -10443,6 +14410,13 @@
       <c r="J290" s="0" t="n">
         <v>14.1</v>
       </c>
+      <c r="K290" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="L290" s="0" t="n">
+        <f aca="false">AVERAGE(J271:J290)</f>
+        <v>41.76</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
@@ -10475,6 +14449,13 @@
       <c r="J291" s="0" t="n">
         <v>64.8</v>
       </c>
+      <c r="K291" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="L291" s="0" t="n">
+        <f aca="false">AVERAGE(J272:J291)</f>
+        <v>42.945</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
@@ -10507,6 +14488,13 @@
       <c r="J292" s="0" t="n">
         <v>33</v>
       </c>
+      <c r="K292" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="L292" s="0" t="n">
+        <f aca="false">AVERAGE(J273:J292)</f>
+        <v>43.605</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
@@ -10539,6 +14527,13 @@
       <c r="J293" s="0" t="n">
         <v>79.1</v>
       </c>
+      <c r="K293" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="L293" s="0" t="n">
+        <f aca="false">AVERAGE(J274:J293)</f>
+        <v>43.085</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
@@ -10571,6 +14566,13 @@
       <c r="J294" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="K294" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="L294" s="0" t="n">
+        <f aca="false">AVERAGE(J275:J294)</f>
+        <v>42.805</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
@@ -10603,6 +14605,13 @@
       <c r="J295" s="0" t="n">
         <v>7.8</v>
       </c>
+      <c r="K295" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="L295" s="0" t="n">
+        <f aca="false">AVERAGE(J276:J295)</f>
+        <v>40.085</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
@@ -10635,6 +14644,13 @@
       <c r="J296" s="0" t="n">
         <v>26.4</v>
       </c>
+      <c r="K296" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="L296" s="0" t="n">
+        <f aca="false">AVERAGE(J277:J296)</f>
+        <v>35.895</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
@@ -10667,6 +14683,13 @@
       <c r="J297" s="0" t="n">
         <v>60.6</v>
       </c>
+      <c r="K297" s="0" t="n">
+        <v>277</v>
+      </c>
+      <c r="L297" s="0" t="n">
+        <f aca="false">AVERAGE(J278:J297)</f>
+        <v>35.875</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
@@ -10699,6 +14722,13 @@
       <c r="J298" s="0" t="n">
         <v>6.5</v>
       </c>
+      <c r="K298" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="L298" s="0" t="n">
+        <f aca="false">AVERAGE(J279:J298)</f>
+        <v>34.055</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
@@ -10731,6 +14761,13 @@
       <c r="J299" s="0" t="n">
         <v>66.8</v>
       </c>
+      <c r="K299" s="0" t="n">
+        <v>279</v>
+      </c>
+      <c r="L299" s="0" t="n">
+        <f aca="false">AVERAGE(J280:J299)</f>
+        <v>36.06</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
@@ -10763,6 +14800,13 @@
       <c r="J300" s="0" t="n">
         <v>108.7</v>
       </c>
+      <c r="K300" s="0" t="n">
+        <v>280</v>
+      </c>
+      <c r="L300" s="0" t="n">
+        <f aca="false">AVERAGE(J281:J300)</f>
+        <v>39.24</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
@@ -10795,6 +14839,13 @@
       <c r="J301" s="0" t="n">
         <v>3.5</v>
       </c>
+      <c r="K301" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="L301" s="0" t="n">
+        <f aca="false">AVERAGE(J282:J301)</f>
+        <v>38.77</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
@@ -10827,6 +14878,13 @@
       <c r="J302" s="0" t="n">
         <v>-3.4</v>
       </c>
+      <c r="K302" s="0" t="n">
+        <v>282</v>
+      </c>
+      <c r="L302" s="0" t="n">
+        <f aca="false">AVERAGE(J283:J302)</f>
+        <v>36.2</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
@@ -10859,6 +14917,13 @@
       <c r="J303" s="0" t="n">
         <v>70.2</v>
       </c>
+      <c r="K303" s="0" t="n">
+        <v>283</v>
+      </c>
+      <c r="L303" s="0" t="n">
+        <f aca="false">AVERAGE(J284:J303)</f>
+        <v>41.855</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
@@ -10891,6 +14956,13 @@
       <c r="J304" s="0" t="n">
         <v>10.5</v>
       </c>
+      <c r="K304" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="L304" s="0" t="n">
+        <f aca="false">AVERAGE(J285:J304)</f>
+        <v>40.855</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
@@ -10923,6 +14995,13 @@
       <c r="J305" s="0" t="n">
         <v>70.2</v>
       </c>
+      <c r="K305" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="L305" s="0" t="n">
+        <f aca="false">AVERAGE(J286:J305)</f>
+        <v>43.67</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
@@ -10955,6 +15034,13 @@
       <c r="J306" s="0" t="n">
         <v>64.6</v>
       </c>
+      <c r="K306" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="L306" s="0" t="n">
+        <f aca="false">AVERAGE(J287:J306)</f>
+        <v>44.75</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
@@ -10987,6 +15073,13 @@
       <c r="J307" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="K307" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="L307" s="0" t="n">
+        <f aca="false">AVERAGE(J288:J307)</f>
+        <v>46.345</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
@@ -11019,6 +15112,13 @@
       <c r="J308" s="0" t="n">
         <v>96</v>
       </c>
+      <c r="K308" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="L308" s="0" t="n">
+        <f aca="false">AVERAGE(J289:J308)</f>
+        <v>43.43</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
@@ -11051,6 +15151,13 @@
       <c r="J309" s="0" t="n">
         <v>9.1</v>
       </c>
+      <c r="K309" s="0" t="n">
+        <v>289</v>
+      </c>
+      <c r="L309" s="0" t="n">
+        <f aca="false">AVERAGE(J290:J309)</f>
+        <v>43.475</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
@@ -11083,6 +15190,13 @@
       <c r="J310" s="0" t="n">
         <v>59.9</v>
       </c>
+      <c r="K310" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="L310" s="0" t="n">
+        <f aca="false">AVERAGE(J291:J310)</f>
+        <v>45.765</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
@@ -11115,6 +15229,13 @@
       <c r="J311" s="0" t="n">
         <v>265</v>
       </c>
+      <c r="K311" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="L311" s="0" t="n">
+        <f aca="false">AVERAGE(J292:J311)</f>
+        <v>55.775</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
@@ -11147,6 +15268,13 @@
       <c r="J312" s="0" t="n">
         <v>34.6</v>
       </c>
+      <c r="K312" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="L312" s="0" t="n">
+        <f aca="false">AVERAGE(J293:J312)</f>
+        <v>55.855</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
@@ -11179,6 +15307,13 @@
       <c r="J313" s="0" t="n">
         <v>-6.7</v>
       </c>
+      <c r="K313" s="0" t="n">
+        <v>293</v>
+      </c>
+      <c r="L313" s="0" t="n">
+        <f aca="false">AVERAGE(J294:J313)</f>
+        <v>51.565</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
@@ -11211,6 +15346,13 @@
       <c r="J314" s="0" t="n">
         <v>-2.1</v>
       </c>
+      <c r="K314" s="0" t="n">
+        <v>294</v>
+      </c>
+      <c r="L314" s="0" t="n">
+        <f aca="false">AVERAGE(J295:J314)</f>
+        <v>50.16</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
@@ -11243,6 +15385,13 @@
       <c r="J315" s="0" t="n">
         <v>107.9</v>
       </c>
+      <c r="K315" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="L315" s="0" t="n">
+        <f aca="false">AVERAGE(J296:J315)</f>
+        <v>55.165</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
@@ -11275,6 +15424,13 @@
       <c r="J316" s="0" t="n">
         <v>16.5</v>
       </c>
+      <c r="K316" s="0" t="n">
+        <v>296</v>
+      </c>
+      <c r="L316" s="0" t="n">
+        <f aca="false">AVERAGE(J297:J316)</f>
+        <v>54.67</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
@@ -11307,6 +15463,13 @@
       <c r="J317" s="0" t="n">
         <v>60.5</v>
       </c>
+      <c r="K317" s="0" t="n">
+        <v>297</v>
+      </c>
+      <c r="L317" s="0" t="n">
+        <f aca="false">AVERAGE(J298:J317)</f>
+        <v>54.665</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
@@ -11339,6 +15502,13 @@
       <c r="J318" s="0" t="n">
         <v>61.7</v>
       </c>
+      <c r="K318" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="L318" s="0" t="n">
+        <f aca="false">AVERAGE(J299:J318)</f>
+        <v>57.425</v>
+      </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
@@ -11371,6 +15541,13 @@
       <c r="J319" s="0" t="n">
         <v>-8.2</v>
       </c>
+      <c r="K319" s="0" t="n">
+        <v>299</v>
+      </c>
+      <c r="L319" s="0" t="n">
+        <f aca="false">AVERAGE(J300:J319)</f>
+        <v>53.675</v>
+      </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
@@ -11403,6 +15580,13 @@
       <c r="J320" s="0" t="n">
         <v>19.1</v>
       </c>
+      <c r="K320" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="L320" s="0" t="n">
+        <f aca="false">AVERAGE(J301:J320)</f>
+        <v>49.195</v>
+      </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
@@ -11435,6 +15619,13 @@
       <c r="J321" s="0" t="n">
         <v>63</v>
       </c>
+      <c r="K321" s="0" t="n">
+        <v>301</v>
+      </c>
+      <c r="L321" s="0" t="n">
+        <f aca="false">AVERAGE(J302:J321)</f>
+        <v>52.17</v>
+      </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
@@ -11466,6 +15657,13 @@
       </c>
       <c r="J322" s="0" t="n">
         <v>25.9</v>
+      </c>
+      <c r="K322" s="0" t="n">
+        <v>302</v>
+      </c>
+      <c r="L322" s="0" t="n">
+        <f aca="false">AVERAGE(J303:J322)</f>
+        <v>53.635</v>
       </c>
     </row>
   </sheetData>
@@ -11476,5 +15674,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>